--- a/data/raw/coralsnakes_data_ITU.xlsx
+++ b/data/raw/coralsnakes_data_ITU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Livia\Documents\Mestrado em Ecologia &amp; Evolução - UFG\Segundo capítulo\Manuscrito\Qualificação\Planilhas e scripts GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Livia\Documents\Mestrado em Ecologia &amp; Evolução - UFG\Segundo capítulo\Manuscrito\Qualificação\MS\Submissão GEB\Planilhas e scripts GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833E6939-99B4-4238-8998-157B511944EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE285A2-F316-4B20-BDC2-DC0DCC3C8C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6EF8C424-A6B2-41D9-B647-421545ED7574}"/>
   </bookViews>
@@ -319,16 +319,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -356,9 +348,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,15 +664,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC48910-15C0-4F0D-B6C0-2DE2DB03A875}">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,12 +707,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>-1837</v>
+        <v>1837</v>
       </c>
       <c r="C2">
         <v>1.729330555</v>
@@ -751,12 +742,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-1863</v>
+        <v>1863</v>
       </c>
       <c r="C3">
         <v>-6.7891247010000004</v>
@@ -786,12 +777,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-2003</v>
+        <v>2003</v>
       </c>
       <c r="C4">
         <v>5.3730013159999999</v>
@@ -821,12 +812,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-1870</v>
+        <v>1870</v>
       </c>
       <c r="C5">
         <v>-1.3041476569999999</v>
@@ -856,12 +847,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-1861</v>
+        <v>1861</v>
       </c>
       <c r="C6">
         <v>29.513497699999999</v>
@@ -891,12 +882,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-1925</v>
+        <v>1925</v>
       </c>
       <c r="C7">
         <v>-3.746768248</v>
@@ -926,12 +917,12 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-1936</v>
+        <v>1936</v>
       </c>
       <c r="C8">
         <v>11.640674860000001</v>
@@ -960,14 +951,13 @@
       <c r="K8">
         <v>3</v>
       </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-1860</v>
+        <v>1860</v>
       </c>
       <c r="C9">
         <v>-28.829783590000002</v>
@@ -997,12 +987,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-1872</v>
+        <v>1872</v>
       </c>
       <c r="C10">
         <v>2.2733694940000002</v>
@@ -1032,12 +1022,12 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11">
-        <v>-1871</v>
+        <v>1871</v>
       </c>
       <c r="C11">
         <v>-11.54014256</v>
@@ -1067,12 +1057,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-1858</v>
+        <v>1858</v>
       </c>
       <c r="C12">
         <v>17.716966889999998</v>
@@ -1102,12 +1092,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-1939</v>
+        <v>1939</v>
       </c>
       <c r="C13">
         <v>0.160702914</v>
@@ -1137,12 +1127,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-1860</v>
+        <v>1860</v>
       </c>
       <c r="C14">
         <v>-29.360684590000002</v>
@@ -1172,12 +1162,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15">
-        <v>-1898</v>
+        <v>1898</v>
       </c>
       <c r="C15">
         <v>-11.06787111</v>
@@ -1207,12 +1197,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-1872</v>
+        <v>1872</v>
       </c>
       <c r="C16">
         <v>-2.3916595580000002</v>
@@ -1247,7 +1237,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>-2018</v>
+        <v>2018</v>
       </c>
       <c r="C17">
         <v>-11.08056687</v>
@@ -1282,7 +1272,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-1967</v>
+        <v>1967</v>
       </c>
       <c r="C18">
         <v>-13.155447560000001</v>
@@ -1317,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-1967</v>
+        <v>1967</v>
       </c>
       <c r="C19">
         <v>-12.37844625</v>
@@ -1352,7 +1342,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-1943</v>
+        <v>1943</v>
       </c>
       <c r="C20">
         <v>17.83810429</v>
@@ -1387,7 +1377,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-2003</v>
+        <v>2003</v>
       </c>
       <c r="C21">
         <v>7.4696674830000003</v>
@@ -1422,7 +1412,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>-1967</v>
+        <v>1967</v>
       </c>
       <c r="C22">
         <v>-16.392343990000001</v>
@@ -1457,7 +1447,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>-1989</v>
+        <v>1989</v>
       </c>
       <c r="C23">
         <v>-3.9867107279999998</v>
@@ -1492,7 +1482,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>-1854</v>
+        <v>1854</v>
       </c>
       <c r="C24">
         <v>10.744459060000001</v>
@@ -1527,7 +1517,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>-1936</v>
+        <v>1936</v>
       </c>
       <c r="C25">
         <v>5.3571826339999999</v>
@@ -1562,7 +1552,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>-1820</v>
+        <v>1820</v>
       </c>
       <c r="C26">
         <v>-21.314422279999999</v>
@@ -1597,7 +1587,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>-1858</v>
+        <v>1858</v>
       </c>
       <c r="C27">
         <v>-22.936037150000001</v>
@@ -1632,7 +1622,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>-1983</v>
+        <v>1983</v>
       </c>
       <c r="C28">
         <v>-14.78280401</v>
@@ -1667,7 +1657,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>-1854</v>
+        <v>1854</v>
       </c>
       <c r="C29">
         <v>18.00061899</v>
@@ -1702,7 +1692,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>-1860</v>
+        <v>1860</v>
       </c>
       <c r="C30">
         <v>8.2712658579999996</v>
@@ -1737,7 +1727,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>-1861</v>
+        <v>1861</v>
       </c>
       <c r="C31">
         <v>22.04047834</v>
@@ -1772,7 +1762,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>-1955</v>
+        <v>1955</v>
       </c>
       <c r="C32">
         <v>2.2078213440000001</v>
@@ -1807,7 +1797,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>-1858</v>
+        <v>1858</v>
       </c>
       <c r="C33">
         <v>5.9366511170000003</v>
@@ -1842,7 +1832,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>-1858</v>
+        <v>1858</v>
       </c>
       <c r="C34">
         <v>18.384513309999999</v>
@@ -1877,7 +1867,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>-1886</v>
+        <v>1886</v>
       </c>
       <c r="C35">
         <v>17.179829049999999</v>
@@ -1912,7 +1902,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>-1859</v>
+        <v>1859</v>
       </c>
       <c r="C36">
         <v>-2.4853632349999999</v>
@@ -1947,7 +1937,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>-1854</v>
+        <v>1854</v>
       </c>
       <c r="C37">
         <v>-20.169158029999998</v>
@@ -1982,7 +1972,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>-1927</v>
+        <v>1927</v>
       </c>
       <c r="C38">
         <v>-1.5333329630000001</v>
@@ -2017,7 +2007,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>-1766</v>
+        <v>1766</v>
       </c>
       <c r="C39">
         <v>30.827649319999999</v>
@@ -2052,7 +2042,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>-1858</v>
+        <v>1858</v>
       </c>
       <c r="C40">
         <v>-1.7215591729999999</v>
@@ -2087,7 +2077,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>-1820</v>
+        <v>1820</v>
       </c>
       <c r="C41">
         <v>-10.836900979999999</v>
@@ -2122,7 +2112,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>-1860</v>
+        <v>1860</v>
       </c>
       <c r="C42">
         <v>6.900635512</v>
@@ -2157,7 +2147,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>-1824</v>
+        <v>1824</v>
       </c>
       <c r="C43">
         <v>-1.5807957749999999</v>
@@ -2192,7 +2182,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>-1869</v>
+        <v>1869</v>
       </c>
       <c r="C44">
         <v>18.060921629999999</v>
@@ -2227,7 +2217,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>-1933</v>
+        <v>1933</v>
       </c>
       <c r="C45">
         <v>16.219422999999999</v>
@@ -2262,7 +2252,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>-1758</v>
+        <v>1758</v>
       </c>
       <c r="C46">
         <v>-8.7620499519999999</v>
@@ -2297,7 +2287,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>-1964</v>
+        <v>1964</v>
       </c>
       <c r="C47">
         <v>18.462817390000001</v>
@@ -2332,7 +2322,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>-1967</v>
+        <v>1967</v>
       </c>
       <c r="C48">
         <v>-4.315079549</v>
@@ -2367,7 +2357,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>-1967</v>
+        <v>1967</v>
       </c>
       <c r="C49">
         <v>4.241747406</v>
@@ -2402,7 +2392,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>-1989</v>
+        <v>1989</v>
       </c>
       <c r="C50">
         <v>8.5104189550000005</v>
@@ -2437,7 +2427,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>-1936</v>
+        <v>1936</v>
       </c>
       <c r="C51">
         <v>-3.2023101359999999</v>
@@ -2472,7 +2462,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>-1891</v>
+        <v>1891</v>
       </c>
       <c r="C52">
         <v>18.976188870000001</v>
@@ -2507,7 +2497,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>-1854</v>
+        <v>1854</v>
       </c>
       <c r="C53">
         <v>1.1196964819999999</v>
@@ -2542,7 +2532,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>-1933</v>
+        <v>1933</v>
       </c>
       <c r="C54">
         <v>10.528866409999999</v>
@@ -2577,7 +2567,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>-1858</v>
+        <v>1858</v>
       </c>
       <c r="C55">
         <v>9.6810740000000006</v>
@@ -2612,7 +2602,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>-1940</v>
+        <v>1940</v>
       </c>
       <c r="C56">
         <v>4.501820522</v>
@@ -2647,7 +2637,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>-1952</v>
+        <v>1952</v>
       </c>
       <c r="C57">
         <v>0.91190031000000005</v>
@@ -2682,7 +2672,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>-1855</v>
+        <v>1855</v>
       </c>
       <c r="C58">
         <v>7.4543579209999997</v>
@@ -2717,7 +2707,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>-1872</v>
+        <v>1872</v>
       </c>
       <c r="C59">
         <v>-6.2585813459999997</v>
@@ -2752,7 +2742,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>-2005</v>
+        <v>2005</v>
       </c>
       <c r="C60">
         <v>2.5122139419999998</v>
@@ -2787,7 +2777,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>-1967</v>
+        <v>1967</v>
       </c>
       <c r="C61">
         <v>19.446154969999998</v>
@@ -2822,7 +2812,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>-1858</v>
+        <v>1858</v>
       </c>
       <c r="C62">
         <v>-0.76068697399999996</v>
@@ -2857,7 +2847,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>-1953</v>
+        <v>1953</v>
       </c>
       <c r="C63">
         <v>-3.3344157889999999</v>
@@ -2892,7 +2882,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>-2002</v>
+        <v>2002</v>
       </c>
       <c r="C64">
         <v>4.5166668940000001</v>
@@ -2927,7 +2917,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>-1973</v>
+        <v>1973</v>
       </c>
       <c r="C65">
         <v>-5.8546273339999999</v>
@@ -2962,7 +2952,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>-1936</v>
+        <v>1936</v>
       </c>
       <c r="C66">
         <v>-6.0657650719999996</v>
@@ -2997,7 +2987,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>-1967</v>
+        <v>1967</v>
       </c>
       <c r="C67">
         <v>-2.6834102610000001</v>
@@ -3032,7 +3022,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>-2014</v>
+        <v>2014</v>
       </c>
       <c r="C68">
         <v>-7.0989437830000002</v>
@@ -3067,7 +3057,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>-1803</v>
+        <v>1803</v>
       </c>
       <c r="C69">
         <v>3.7218360530000001</v>
@@ -3102,7 +3092,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>-1962</v>
+        <v>1962</v>
       </c>
       <c r="C70">
         <v>-7.0586988530000001</v>
@@ -3137,7 +3127,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>-1862</v>
+        <v>1862</v>
       </c>
       <c r="C71">
         <v>-28.43454504</v>
@@ -3172,7 +3162,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>-1987</v>
+        <v>1987</v>
       </c>
       <c r="C72">
         <v>-2.5095255320000001</v>
@@ -3207,7 +3197,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>-1895</v>
+        <v>1895</v>
       </c>
       <c r="C73">
         <v>16.340552120000002</v>
@@ -3242,7 +3232,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>-1942</v>
+        <v>1942</v>
       </c>
       <c r="C74">
         <v>6.4194787370000004</v>
@@ -3277,7 +3267,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>-2003</v>
+        <v>2003</v>
       </c>
       <c r="C75">
         <v>-17.462522409999998</v>
@@ -3312,7 +3302,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>-2007</v>
+        <v>2007</v>
       </c>
       <c r="C76">
         <v>-28.416635490000001</v>
@@ -3347,7 +3337,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>-1824</v>
+        <v>1824</v>
       </c>
       <c r="C77">
         <v>-6.6514606250000003</v>
@@ -3382,7 +3372,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>-1914</v>
+        <v>1914</v>
       </c>
       <c r="C78">
         <v>4.8495226919999999</v>
@@ -3417,7 +3407,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>-1901</v>
+        <v>1901</v>
       </c>
       <c r="C79">
         <v>-1.9763949679999999</v>
@@ -3452,7 +3442,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>-1928</v>
+        <v>1928</v>
       </c>
       <c r="C80">
         <v>9.0127687010000006</v>
@@ -3487,7 +3477,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>-1967</v>
+        <v>1967</v>
       </c>
       <c r="C81">
         <v>14.816666659999999</v>
@@ -3522,7 +3512,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>-1817</v>
+        <v>1817</v>
       </c>
       <c r="C82">
         <v>-9.7737285519999997</v>
@@ -3557,7 +3547,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>-1853</v>
+        <v>1853</v>
       </c>
       <c r="C83">
         <v>27.505840670000001</v>
@@ -3592,7 +3582,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>-2015</v>
+        <v>2015</v>
       </c>
       <c r="C84">
         <v>-3.6047112970000001</v>
@@ -3627,7 +3617,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>-1956</v>
+        <v>1956</v>
       </c>
       <c r="C85">
         <v>-23.42869979</v>
@@ -3662,7 +3652,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>-1858</v>
+        <v>1858</v>
       </c>
       <c r="C86">
         <v>-5.6662484050000002</v>
